--- a/cocos-prog/03-tool/gj/system.xlsx
+++ b/cocos-prog/03-tool/gj/system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>标题</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>[24,1,1]</t>
+  </si>
+  <si>
+    <t>人族等级成长,血，魔，攻，魔攻，防御，魔法防御</t>
+  </si>
+  <si>
+    <t>[10,0,5,0,5,0]</t>
+  </si>
+  <si>
+    <t>仙族等级成长,血，魔，攻，魔攻，防御，魔法防御</t>
+  </si>
+  <si>
+    <t>[10,10,1,5,0,1]</t>
+  </si>
+  <si>
+    <t>鬼族等级成长,血，魔，攻，魔攻，防御，魔法防御</t>
+  </si>
+  <si>
+    <t>[5,15,0,7,5,0]</t>
+  </si>
+  <si>
+    <t>妖族等级成长,血，魔，攻，魔攻，防御，魔法防御</t>
+  </si>
+  <si>
+    <t>[15,1,5,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -1283,15 +1307,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="28.6826923076923" customWidth="1"/>
+    <col min="2" max="2" width="54.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="13.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1336,6 +1361,50 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-prog/03-tool/gj/system.xlsx
+++ b/cocos-prog/03-tool/gj/system.xlsx
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
